--- a/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
     <sheet name="IISParams_Login" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="IncidentalCharges" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>UserType</t>
   </si>
@@ -103,13 +104,131 @@
   </si>
   <si>
     <t>GOWTHAM</t>
+  </si>
+  <si>
+    <t>AT_IC_005</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Data Set ID</t>
+  </si>
+  <si>
+    <t>DS_AT_IC_005</t>
+  </si>
+  <si>
+    <t>Party Value</t>
+  </si>
+  <si>
+    <t>Charge Code</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>AT_IC_006</t>
+  </si>
+  <si>
+    <t>DS_AT_IC_006</t>
+  </si>
+  <si>
+    <t>Deal No</t>
+  </si>
+  <si>
+    <t>AT_IC_007</t>
+  </si>
+  <si>
+    <t>DS_AT_IC_007</t>
+  </si>
+  <si>
+    <t>AT_IC_008</t>
+  </si>
+  <si>
+    <t>DS_AT_IC_008</t>
+  </si>
+  <si>
+    <t>Charge Allocation Criteria</t>
+  </si>
+  <si>
+    <t>Next Installment</t>
+  </si>
+  <si>
+    <t>5495</t>
+  </si>
+  <si>
+    <t>5497</t>
+  </si>
+  <si>
+    <t>5498</t>
+  </si>
+  <si>
+    <t>5499</t>
+  </si>
+  <si>
+    <t>5501</t>
+  </si>
+  <si>
+    <t>5509</t>
+  </si>
+  <si>
+    <t>5511</t>
+  </si>
+  <si>
+    <t>5512</t>
+  </si>
+  <si>
+    <t>5513</t>
+  </si>
+  <si>
+    <t>5514</t>
+  </si>
+  <si>
+    <t>5515</t>
+  </si>
+  <si>
+    <t>5516</t>
+  </si>
+  <si>
+    <t>5526</t>
+  </si>
+  <si>
+    <t>5527</t>
+  </si>
+  <si>
+    <t>5528</t>
+  </si>
+  <si>
+    <t>5531</t>
+  </si>
+  <si>
+    <t>5532</t>
+  </si>
+  <si>
+    <t>5533</t>
+  </si>
+  <si>
+    <t>5538</t>
+  </si>
+  <si>
+    <t>5539</t>
+  </si>
+  <si>
+    <t>5541</t>
+  </si>
+  <si>
+    <t>5542</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +255,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +282,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,18 +324,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="1"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -964,4 +1147,128 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.12109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7">
+        <v>727</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7">
+        <v>727</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
     <sheet name="IISParams_Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="IncidentalCharges" sheetId="4" r:id="rId4"/>
+    <sheet name="IncidentalCharges" sheetId="4" r:id="rId3"/>
+    <sheet name="Accrual_Process" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>UserType</t>
   </si>
@@ -157,78 +157,62 @@
     <t>Next Installment</t>
   </si>
   <si>
-    <t>5495</t>
-  </si>
-  <si>
-    <t>5497</t>
-  </si>
-  <si>
-    <t>5498</t>
-  </si>
-  <si>
-    <t>5499</t>
-  </si>
-  <si>
-    <t>5501</t>
-  </si>
-  <si>
-    <t>5509</t>
-  </si>
-  <si>
-    <t>5511</t>
-  </si>
-  <si>
-    <t>5512</t>
-  </si>
-  <si>
-    <t>5513</t>
-  </si>
-  <si>
-    <t>5514</t>
-  </si>
-  <si>
-    <t>5515</t>
-  </si>
-  <si>
-    <t>5516</t>
-  </si>
-  <si>
-    <t>5526</t>
-  </si>
-  <si>
-    <t>5527</t>
-  </si>
-  <si>
-    <t>5528</t>
-  </si>
-  <si>
-    <t>5531</t>
-  </si>
-  <si>
-    <t>5532</t>
-  </si>
-  <si>
-    <t>5533</t>
-  </si>
-  <si>
-    <t>5538</t>
-  </si>
-  <si>
-    <t>5539</t>
-  </si>
-  <si>
-    <t>5541</t>
-  </si>
-  <si>
-    <t>5542</t>
+    <t>AT_AP_009</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_009</t>
+  </si>
+  <si>
+    <t>From date</t>
+  </si>
+  <si>
+    <t>To date</t>
+  </si>
+  <si>
+    <t>First Payment After</t>
+  </si>
+  <si>
+    <t>14/03/2010</t>
+  </si>
+  <si>
+    <t>AT_AP_010</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_010</t>
+  </si>
+  <si>
+    <t>AT_AP_056</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_056</t>
+  </si>
+  <si>
+    <t>AT_AP_057</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_057</t>
+  </si>
+  <si>
+    <t>AT_AP_054</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_054</t>
+  </si>
+  <si>
+    <t>22/01/2018</t>
+  </si>
+  <si>
+    <t>AT_AP_078</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_078</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +242,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -356,21 +348,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="1"/>
@@ -670,7 +668,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1139,136 +1137,351 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6">
+        <v>727</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6">
+        <v>727</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.12109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="H1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6">
         <v>727</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>10000</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="G2" s="6"/>
+      <c r="H2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6">
         <v>727</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F3" s="6">
         <v>10000</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6">
+        <v>727</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6">
+        <v>727</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6">
+        <v>727</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="6">
+        <v>727</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>118</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>UserType</t>
   </si>
@@ -206,6 +206,45 @@
   </si>
   <si>
     <t>DS_AT_AP_078</t>
+  </si>
+  <si>
+    <t>AT_APY_006</t>
+  </si>
+  <si>
+    <t>DS_AT_APY_006</t>
+  </si>
+  <si>
+    <t>Tenure days</t>
+  </si>
+  <si>
+    <t>Tenure month</t>
+  </si>
+  <si>
+    <t>Number Of Payments</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>AT_APY_007</t>
+  </si>
+  <si>
+    <t>DS_AT_APY_007</t>
+  </si>
+  <si>
+    <t>AT_AP_025</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_025</t>
+  </si>
+  <si>
+    <t>AT_APS_007</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_007</t>
+  </si>
+  <si>
+    <t>31/03/2014</t>
   </si>
 </sst>
 </file>
@@ -255,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -369,6 +414,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="1"/>
@@ -1259,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1277,9 +1328,12 @@
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -1310,8 +1364,17 @@
       <c r="J1" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
@@ -1341,7 +1404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
@@ -1367,9 +1430,9 @@
       <c r="I3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
@@ -1397,7 +1460,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>56</v>
       </c>
@@ -1425,7 +1488,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>58</v>
       </c>
@@ -1453,7 +1516,7 @@
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -1478,6 +1541,107 @@
       </c>
       <c r="I7" s="9" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6">
+        <v>727</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6">
+        <v>727</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="6">
+        <v>727</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="6">
+        <v>727</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
     <sheet name="IISParams_Login" sheetId="2" r:id="rId2"/>
     <sheet name="IncidentalCharges" sheetId="4" r:id="rId3"/>
     <sheet name="Accrual_Process" sheetId="5" r:id="rId4"/>
+    <sheet name="Asset_Management" sheetId="6" r:id="rId5"/>
+    <sheet name="Penalty" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t>UserType</t>
   </si>
@@ -245,6 +247,99 @@
   </si>
   <si>
     <t>31/03/2014</t>
+  </si>
+  <si>
+    <t>AT_AM_007</t>
+  </si>
+  <si>
+    <t>DS_AT_AM_007</t>
+  </si>
+  <si>
+    <t>AT_AM_008</t>
+  </si>
+  <si>
+    <t>AT_AM_009</t>
+  </si>
+  <si>
+    <t>DS_AT_AM_008</t>
+  </si>
+  <si>
+    <t>DS_AT_AM_009</t>
+  </si>
+  <si>
+    <t>Search Product Class Record</t>
+  </si>
+  <si>
+    <t>Search Code without flat amount</t>
+  </si>
+  <si>
+    <t>Search Code define charge code amount</t>
+  </si>
+  <si>
+    <t>Repossession Type field1</t>
+  </si>
+  <si>
+    <t>Repossession Type field2</t>
+  </si>
+  <si>
+    <t>Asset Repossession</t>
+  </si>
+  <si>
+    <t>Asset Return</t>
+  </si>
+  <si>
+    <t>Asset Repossession finalization</t>
+  </si>
+  <si>
+    <t>Asset Return finalization</t>
+  </si>
+  <si>
+    <t>DS_AT_AM_010</t>
+  </si>
+  <si>
+    <t>Select Allow Edit</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Penalty Type1</t>
+  </si>
+  <si>
+    <t>Penalty Type2</t>
+  </si>
+  <si>
+    <t>Search Record</t>
+  </si>
+  <si>
+    <t>Repayment Apportionment</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_016</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_016</t>
+  </si>
+  <si>
+    <t>Profit on Financing Amount</t>
+  </si>
+  <si>
+    <t>Flat Amount on Due Days</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_017</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_017</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_020</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_020</t>
+  </si>
+  <si>
+    <t>Additional Profit/Penalty(With First Due Installment)</t>
   </si>
 </sst>
 </file>
@@ -393,7 +488,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -420,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="1"/>
@@ -1312,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1648,4 +1746,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
+++ b/Azentio_FMS_Gowtham/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Accrual_Process" sheetId="5" r:id="rId4"/>
     <sheet name="Asset_Management" sheetId="6" r:id="rId5"/>
     <sheet name="Penalty" sheetId="7" r:id="rId6"/>
+    <sheet name="IIS_Parameter" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="128">
   <si>
     <t>UserType</t>
   </si>
@@ -340,6 +341,69 @@
   </si>
   <si>
     <t>Additional Profit/Penalty(With First Due Installment)</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_064</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_064</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>ReEnter Brief Description</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testt</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Desk Code</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_065</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_065</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>dell@gmail.com</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Cc</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_066</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_066</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_068</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_068</t>
+  </si>
+  <si>
+    <t>Certificate Code</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1475,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1872,14 +1936,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
@@ -1955,4 +2019,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>